--- a/public/data/profit/profit_table_malawi.xlsx
+++ b/public/data/profit/profit_table_malawi.xlsx
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-35.33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-35.33</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2051,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-35.34</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-34.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-35.28</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-10.15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2128,37 +2128,37 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-10.26</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-7.96</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.26</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.76</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.73</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-3.51</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-3.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.05</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-11.1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-11.03</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-10.99</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.56</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.82</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -3248,43 +3248,43 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.84</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-12.27</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-8.76</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-11.65</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-9.3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.05</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-9.44</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-9.19</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>-6.45</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.46</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-7.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-115.61</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-116.18</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-115.38</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-114.78</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3713,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-138.75</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-140.05</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-138.99</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>-138.08</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.03</v>
+        <v>29.04</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.05</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-21.16</v>
+        <v>5.85</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4451,46 +4451,46 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-10.63</v>
+        <v>21.29</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-21.15</v>
+        <v>-15.46</v>
       </c>
       <c r="O33" t="n">
-        <v>-18.93</v>
+        <v>9.1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.28</v>
+        <v>420.68</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-52.19</v>
+        <v>-22.5</v>
       </c>
       <c r="T33" t="n">
-        <v>-23.52</v>
+        <v>-16.91</v>
       </c>
       <c r="U33" t="n">
-        <v>-13.68</v>
+        <v>9.17</v>
       </c>
       <c r="V33" t="n">
-        <v>-6.86</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-52.74</v>
+        <v>-23.06</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-5.14</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4507,19 +4507,19 @@
         <v>118</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-15.87</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-30.7</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4531,49 +4531,49 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-25.14</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-14.4</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-28.03</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-18.21</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-19.22</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-19.41</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-8.04</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>-18.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-18.42</v>
+        <v>-12.37</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.96</v>
+        <v>-12.43</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4611,49 +4611,49 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-17.43</v>
+        <v>-9.95</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-24.55</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-15.39</v>
+        <v>4.06</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.71</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-39.59</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-26.28</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-21.78</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-18.17</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-9.38</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>-40.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4673,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-63.26</v>
+        <v>-42.68</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-59.45</v>
+        <v>-36.86</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -4691,22 +4691,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-54.11</v>
+        <v>-30.01</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-29.87</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>-57.42</v>
+        <v>-33.96</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.87</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-30.38</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>-26.1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4753,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-28.72</v>
+        <v>-22.89</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.07</v>
+        <v>-39.44</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4771,40 +4771,40 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-28.61</v>
+        <v>-27.34</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-7.99</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-26.93</v>
+        <v>-16.51</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-3.91</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-13.6</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-7.73</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-13.61</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-22.23</v>
+        <v>-12.62</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-23.33</v>
+        <v>-9.1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4851,22 +4851,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-18.87</v>
+        <v>-7.42</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-3.47</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-20.56</v>
+        <v>-7.45</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.44</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4913,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-20.91</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-21.04</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4931,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-20.21</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-20.68</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>-20.86</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4993,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-10.27</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-11.11</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-9.83</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-10.29</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -5153,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5171,16 +5171,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -5233,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-25.06</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5248,37 +5248,37 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.28</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-21.48</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-23.85</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-24.06</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-3.13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5393,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-16.21</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-16.57</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -5411,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-14.38</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-15.22</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>-15.14</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -5473,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-20.81</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5488,37 +5488,37 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.28</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-18.34</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-20.75</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-20.98</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-3.13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5553,67 +5553,67 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-31.01</v>
+        <v>-38.81</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-28.39</v>
+        <v>-26.91</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-12.97</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-21.6</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-7.28</v>
+        <v>59.35</v>
       </c>
       <c r="M47" t="n">
-        <v>-14.48</v>
+        <v>16.65</v>
       </c>
       <c r="N47" t="n">
-        <v>-23.2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>-19.2</v>
+        <v>6.76</v>
       </c>
       <c r="P47" t="n">
-        <v>-25.27</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>140.13</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-22.04</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>-24.76</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>-15.95</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>89.91</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>-17.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5633,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.44</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.46</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5651,16 +5651,16 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-2.23</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.31</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5731,16 +5731,16 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-4.22</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -5971,16 +5971,16 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.95</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>-1.03</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6033,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -6051,16 +6051,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-4.22</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -6193,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-15.04</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-15.13</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-14.09</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-14.44</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>-14.83</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -6353,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-15.83</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-16.11</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -6368,37 +6368,37 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-14.72</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-14.52</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-1.21</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-15.14</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>-1.21</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>-1.13</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>-1.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6433,13 +6433,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-10.62</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-11.45</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-10.66</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>-10.51</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -6513,13 +6513,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-62.67</v>
+        <v>-39.55</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-70.17</v>
+        <v>-121.31</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -6531,31 +6531,31 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-64.27</v>
+        <v>-54.68</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-98.92</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>-63.64</v>
+        <v>-52.61</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>-22.06</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-52.44</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-81.81</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>-204.14</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>-52.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6593,13 +6593,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-21.39</v>
+        <v>-7.6</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-27.09</v>
+        <v>-19.26</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -6611,22 +6611,22 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-19.88</v>
+        <v>-7.32</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-21.6</v>
+        <v>-10.54</v>
       </c>
       <c r="O60" t="n">
-        <v>-25.38</v>
+        <v>-16.93</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>56.98</v>
+        <v>161.03</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -6635,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-22.88</v>
+        <v>-13.39</v>
       </c>
       <c r="U60" t="n">
-        <v>-14.21</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>-5.21</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-152.03</v>
+        <v>-82.57</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-150.17</v>
+        <v>-80.71</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6691,22 +6691,22 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-138.58</v>
+        <v>-69.11</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-83</v>
+        <v>-31.58</v>
       </c>
       <c r="O61" t="n">
-        <v>-142.37</v>
+        <v>-72.9</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>44.71</v>
+        <v>258.33</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -6715,16 +6715,16 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>-87.84</v>
+        <v>-39.05</v>
       </c>
       <c r="U61" t="n">
-        <v>-46.86</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-68.14</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -6753,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-3.44</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>-3.73</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -6833,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-43.89</v>
+        <v>-30.22</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-43.71</v>
+        <v>-26.96</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -6851,22 +6851,22 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-40.03</v>
+        <v>-23.22</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-15.08</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>-42.11</v>
+        <v>-28.15</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-7.16</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>-15.31</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-10.43</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6913,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-17.91</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-18.3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -6931,22 +6931,22 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-16.31</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>-17.58</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6993,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-11.04</v>
+        <v>-19.09</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-12.83</v>
+        <v>-23</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7011,22 +7011,22 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-8.28</v>
+        <v>-10.86</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-6.21</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>-11.14</v>
+        <v>-23.91</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-6.82</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-8.45</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.99</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -7171,16 +7171,16 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-7.6</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>-4.1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>-8.42</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -7307,73 +7307,73 @@
         <v>156</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.18</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-26.69</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-24.71</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>-12.03</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>-20.16</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>-7.32</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-11.74</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>-19.89</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>51.51</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>-11.9</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>-12.09</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>-8.52</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>-10.26</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>-5.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7393,13 +7393,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-6.38</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-6.41</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -7411,16 +7411,16 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-6.13</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>-5.35</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>-6.18</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -7867,73 +7867,73 @@
         <v>163</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.18</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-22.48</v>
+        <v>-36.53</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-21.56</v>
+        <v>-37.18</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-10.04</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>-14.7</v>
+        <v>-12.01</v>
       </c>
       <c r="M76" t="n">
-        <v>-5.67</v>
+        <v>7.07</v>
       </c>
       <c r="N76" t="n">
-        <v>-9.72</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>-17.57</v>
+        <v>-23.55</v>
       </c>
       <c r="P76" t="n">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>15.53</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>-9.99</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>-10.04</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>-8.64</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>-5.69</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>-7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -8033,13 +8033,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-9.06</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -8048,37 +8048,37 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>-3.71</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>-4.9</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>-3.38</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>-3.72</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>-3.41</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>-3.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -8193,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -8211,16 +8211,16 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-4.63</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>-4.62</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -8513,13 +8513,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-3.69</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -8987,73 +8987,73 @@
         <v>178</v>
       </c>
       <c r="D90" t="n">
-        <v>-16.02</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-53.13</v>
+        <v>-79.86</v>
       </c>
       <c r="G90" t="n">
-        <v>-25.38</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-50.1</v>
+        <v>-81.32</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-29.74</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>-39.83</v>
+        <v>-44.43</v>
       </c>
       <c r="L90" t="n">
-        <v>-24.91</v>
+        <v>-32.33</v>
       </c>
       <c r="M90" t="n">
-        <v>64.02</v>
+        <v>206.71</v>
       </c>
       <c r="N90" t="n">
-        <v>-39.73</v>
+        <v>-49.53</v>
       </c>
       <c r="O90" t="n">
-        <v>-36.11</v>
+        <v>-52.72</v>
       </c>
       <c r="P90" t="n">
-        <v>-59.83</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>243.54</v>
+        <v>889.61</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>-40.05</v>
+        <v>-47.76</v>
       </c>
       <c r="T90" t="n">
-        <v>-42.98</v>
+        <v>-52.58</v>
       </c>
       <c r="U90" t="n">
-        <v>-30.19</v>
+        <v>-19.78</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>171.64</v>
+        <v>452.32</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>-17.89</v>
+        <v>40.74</v>
       </c>
     </row>
     <row r="91">
@@ -9233,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>-1.84</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>-2.47</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.88</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>-4.82</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>-3.58</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -10033,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>-34.76</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>-34.35</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -10051,16 +10051,16 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>-33.88</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>-28.19</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>-34.12</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -10273,13 +10273,13 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-105.34</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-105.15</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -10291,16 +10291,16 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>-105.27</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>-102.7</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>-104.9</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -10353,13 +10353,13 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-62.36</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>-61.74</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -10371,16 +10371,16 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>-61.7</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>-56.4</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>-61.28</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -10513,13 +10513,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-34.21</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>-34.07</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -10528,37 +10528,37 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>-33.21</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>-29.33</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>-32.91</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>-1.76</v>
+        <v>0</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>-3.73</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>-3.51</v>
+        <v>0</v>
       </c>
       <c r="V109" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>-3.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -10593,13 +10593,13 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-144.15</v>
+        <v>-7.44</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-144.25</v>
+        <v>-8.09</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -10611,16 +10611,16 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>-144.22</v>
+        <v>-7.7</v>
       </c>
       <c r="M110" t="n">
-        <v>-103.96</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>-144.16</v>
+        <v>-8.06</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -10673,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-6.71</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>-6.7</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -10691,16 +10691,16 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>-6.69</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>-6.49</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>-6.67</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -10753,13 +10753,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.11</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -10771,16 +10771,16 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>-2.06</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.87</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>-2.04</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -10833,13 +10833,13 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-18.86</v>
+        <v>-15.35</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>-18.61</v>
+        <v>-12.99</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -10851,16 +10851,16 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>-19.01</v>
+        <v>-16.03</v>
       </c>
       <c r="M113" t="n">
-        <v>-15.23</v>
+        <v>8.18</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>-18.81</v>
+        <v>-14.92</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-135.12</v>
+        <v>-93.18</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>-135.14</v>
+        <v>-93.31</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -10931,16 +10931,16 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>-134.97</v>
+        <v>-92.81</v>
       </c>
       <c r="M114" t="n">
-        <v>-125.8</v>
+        <v>-61.67</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>-134.68</v>
+        <v>-92.56</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>-14.2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>-14.19</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -11011,16 +11011,16 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>-14.22</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>-13.81</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>-14.05</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -11073,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>-5.05</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -11091,16 +11091,16 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>-4.99</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>-4.85</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>-4.97</v>
+        <v>0</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -11153,52 +11153,52 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-82.96</v>
+        <v>-54.45</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>-83.38</v>
+        <v>-55.57</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>-16.31</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>-27.34</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>-75.21</v>
+        <v>-34.89</v>
       </c>
       <c r="M117" t="n">
-        <v>-47.51</v>
+        <v>37.28</v>
       </c>
       <c r="N117" t="n">
-        <v>-26.58</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>-79.32</v>
+        <v>-45.85</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>69.36</v>
+        <v>0</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>-29.78</v>
+        <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>-28.27</v>
+        <v>0</v>
       </c>
       <c r="U117" t="n">
-        <v>-17.72</v>
+        <v>0</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
@@ -11210,10 +11210,10 @@
         <v>0</v>
       </c>
       <c r="Y117" t="n">
-        <v>-11.67</v>
+        <v>0</v>
       </c>
       <c r="Z117" t="n">
-        <v>-23.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -11233,52 +11233,52 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-27.53</v>
+        <v>-44.03</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>-27.4</v>
+        <v>-44.22</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>-23.15</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>-33.34</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>-16.51</v>
+        <v>-8.2</v>
       </c>
       <c r="M118" t="n">
-        <v>18.22</v>
+        <v>114.76</v>
       </c>
       <c r="N118" t="n">
-        <v>-32.56</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>-22.42</v>
+        <v>-27.66</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>124.33</v>
+        <v>0</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>-37.14</v>
+        <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>-34.75</v>
+        <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>-19.47</v>
+        <v>0</v>
       </c>
       <c r="V118" t="n">
         <v>0</v>
@@ -11290,10 +11290,10 @@
         <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>-16.86</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>-27.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -11313,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-23.72</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>-23.13</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -11328,37 +11328,37 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.6</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>-22.61</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>-7.63</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>-21.9</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>-7.64</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>-7.65</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>-7.32</v>
+        <v>0</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="Z119" t="n">
-        <v>-7.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-21.78</v>
+        <v>-21.47</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>-21.94</v>
+        <v>-22.6</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -11408,37 +11408,37 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.93</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>-18.89</v>
+        <v>-12.63</v>
       </c>
       <c r="M120" t="n">
-        <v>-14.07</v>
+        <v>6.21</v>
       </c>
       <c r="N120" t="n">
-        <v>-11.78</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>-20.63</v>
+        <v>-17.67</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>-12.22</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>-12.06</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>-10.74</v>
+        <v>0</v>
       </c>
       <c r="V120" t="n">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Z120" t="n">
-        <v>-11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -11473,52 +11473,52 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-38.68</v>
+        <v>-29.53</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>-36.82</v>
+        <v>-26.29</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-16.43</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>-23.36</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>-27.31</v>
+        <v>-9.48</v>
       </c>
       <c r="M121" t="n">
-        <v>13.23</v>
+        <v>64.43</v>
       </c>
       <c r="N121" t="n">
-        <v>-23.16</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>-31.69</v>
+        <v>-17.56</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>78.21</v>
+        <v>0</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>-25.62</v>
+        <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>-24.24</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>-15.32</v>
+        <v>0</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -11530,10 +11530,10 @@
         <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="Z121" t="n">
-        <v>-19.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -11553,13 +11553,13 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>-21.76</v>
+        <v>-11.87</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>-19.3</v>
+        <v>-7.63</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -11568,43 +11568,43 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.36</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>-18.36</v>
+        <v>-4.39</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.18</v>
+        <v>21.68</v>
       </c>
       <c r="N122" t="n">
-        <v>-11.35</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>-18.17</v>
+        <v>-5.39</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.57</v>
+        <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>-5.43</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>-11.45</v>
+        <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>-11.41</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>-10.98</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>-1.81</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>0</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>-11.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -11633,13 +11633,13 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-26.03</v>
+        <v>-11.48</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>-25.94</v>
+        <v>-11.07</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -11648,37 +11648,37 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>-5.93</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>-26.16</v>
+        <v>-12.6</v>
       </c>
       <c r="M123" t="n">
-        <v>-15.38</v>
+        <v>8.5</v>
       </c>
       <c r="N123" t="n">
-        <v>-5.94</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>-25</v>
+        <v>-9.98</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>-4.34</v>
+        <v>0</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>-5.93</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>-5.94</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>-5.85</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>-5.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -11713,52 +11713,52 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>-20.47</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>-20.42</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-4.48</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>-12.05</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>-17.63</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>-12.58</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>-11.96</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>-18.93</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>8.2</v>
+        <v>0</v>
       </c>
       <c r="R124" t="n">
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>-12.48</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>-12.29</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
-        <v>-10.17</v>
+        <v>0</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -11770,10 +11770,10 @@
         <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>-4.39</v>
+        <v>0</v>
       </c>
       <c r="Z124" t="n">
-        <v>-11.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -11793,13 +11793,13 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-4.34</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>-4.36</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -11811,16 +11811,16 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>-4.29</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>-4.17</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>-4.31</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -11873,67 +11873,67 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>-22.21</v>
+        <v>-1.9</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>-14.29</v>
+        <v>6.02</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>-4.79</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.85</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>-4.46</v>
+        <v>15.85</v>
       </c>
       <c r="M126" t="n">
-        <v>24.68</v>
+        <v>44.99</v>
       </c>
       <c r="N126" t="n">
-        <v>-12.63</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>-11.46</v>
+        <v>8.86</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>78.76</v>
+        <v>0</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>-15.47</v>
+        <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>-14.68</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
-        <v>-7.61</v>
+        <v>0</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>-12.44</v>
+        <v>0</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>-6.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -11953,13 +11953,13 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.46</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>-2.42</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -11971,16 +11971,16 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>-1.89</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>-2.27</v>
+        <v>0</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -12033,13 +12033,13 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>-2.72</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -12048,43 +12048,43 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.65</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>-2.99</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>-1.54</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>-2.46</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>-1.88</v>
+        <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>8.68</v>
+        <v>0</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
-        <v>-0.81</v>
+        <v>0</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="X128" t="n">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="Z128" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12113,67 +12113,67 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>-9.1</v>
+        <v>0.19</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>-2.18</v>
+        <v>16.48</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>-13.93</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>-20.21</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>14.52</v>
+        <v>53.96</v>
       </c>
       <c r="M129" t="n">
-        <v>27.64</v>
+        <v>85.44</v>
       </c>
       <c r="N129" t="n">
-        <v>-18.82</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.87</v>
+        <v>18.97</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>205.91</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>-24.65</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>-23.88</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>-28.11</v>
+        <v>0</v>
       </c>
       <c r="X129" t="n">
         <v>0</v>
       </c>
       <c r="Y129" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="Z129" t="n">
-        <v>-7.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12193,67 +12193,67 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>-7.86</v>
+        <v>-5.13</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>-5.94</v>
+        <v>2.62</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>-5.91</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>-15.16</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.7</v>
+        <v>24.12</v>
       </c>
       <c r="M130" t="n">
-        <v>2.95</v>
+        <v>37.25</v>
       </c>
       <c r="N130" t="n">
-        <v>-14.41</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>-5.37</v>
+        <v>4.5</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>-16.6</v>
+        <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>-16.55</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
-        <v>-8.45</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>-14.57</v>
+        <v>0</v>
       </c>
       <c r="X130" t="n">
         <v>0</v>
       </c>
       <c r="Y130" t="n">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="Z130" t="n">
-        <v>-10.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -12273,67 +12273,67 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>-16.17</v>
+        <v>-0.51</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>-5.94</v>
+        <v>13</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-10.88</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>-23.41</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>10.28</v>
+        <v>41.25</v>
       </c>
       <c r="M131" t="n">
-        <v>38.84</v>
+        <v>71.96</v>
       </c>
       <c r="N131" t="n">
-        <v>-21.96</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>-3.92</v>
+        <v>15.6</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>227.66</v>
+        <v>0</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>-28.62</v>
+        <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>-27.59</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="V131" t="n">
         <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>-22.89</v>
+        <v>0</v>
       </c>
       <c r="X131" t="n">
         <v>0</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="Z131" t="n">
-        <v>-8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -12353,13 +12353,13 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>-3.95</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>-3.51</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -12368,37 +12368,37 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.28</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>-1.31</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>-0.87</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>-3.21</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>13.51</v>
+        <v>0</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>-3.56</v>
+        <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>-3.55</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>-2.05</v>
+        <v>0</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="Z132" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="Z133" t="n">
-        <v>-80.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>-79.83</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>-81.37</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="Z134" t="n">
-        <v>-69.51</v>
+        <v>-39.46</v>
       </c>
     </row>
     <row r="135">
@@ -12667,13 +12667,13 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>-15.99</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>-84.24</v>
+        <v>-77.44</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -12685,28 +12685,28 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>-16.15</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>-53.19</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>-93.1</v>
+        <v>-99.12</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>-52.18</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>-54.14</v>
+        <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>99.24</v>
+        <v>0</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>-54.17</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
@@ -12724,16 +12724,16 @@
         <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="X136" t="n">
         <v>0</v>
       </c>
       <c r="Y136" t="n">
-        <v>-14.32</v>
+        <v>0</v>
       </c>
       <c r="Z136" t="n">
-        <v>-71.96</v>
+        <v>-39.46</v>
       </c>
     </row>
     <row r="137">
@@ -12827,13 +12827,13 @@
         <v>229</v>
       </c>
       <c r="D138" t="n">
-        <v>-37.17</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>-56.73</v>
+        <v>-82.66</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -12845,28 +12845,28 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>-38.17</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>-58.26</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>-65.72</v>
+        <v>-103.33</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>-56.65</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>-58.95</v>
+        <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>154.42</v>
+        <v>0</v>
       </c>
       <c r="R138" t="n">
         <v>0</v>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>-59.53</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
@@ -12884,16 +12884,16 @@
         <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>32.09</v>
+        <v>0</v>
       </c>
       <c r="X138" t="n">
         <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>-25.89</v>
+        <v>0</v>
       </c>
       <c r="Z138" t="n">
-        <v>-56.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="Z139" t="n">
-        <v>-80.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>-4.93</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -13313,13 +13313,13 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>-25.84</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-13.27</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -13328,43 +13328,43 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.46</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>-22.51</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>-15.22</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>-12.97</v>
+        <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>-17.13</v>
+        <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>27.73</v>
+        <v>0</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>-9.44</v>
+        <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>-16.36</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
-        <v>-6.45</v>
+        <v>0</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>31.47</v>
+        <v>0</v>
       </c>
       <c r="X144" t="n">
         <v>0</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="Z144" t="n">
-        <v>-13.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -13393,13 +13393,13 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>-6.9</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>-6.92</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -13411,16 +13411,16 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>-6.43</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>-6.67</v>
+        <v>0</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
@@ -13473,13 +13473,13 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>-15.96</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>-16.54</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -13488,37 +13488,37 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>-8.95</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>-15.82</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>-10.96</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>-8.97</v>
+        <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>-8.94</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
-        <v>-8.46</v>
+        <v>0</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="Z146" t="n">
-        <v>-8.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -13553,13 +13553,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>-17.92</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -13571,16 +13571,16 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>-13.07</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>-11.59</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>-16.31</v>
+        <v>0</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
@@ -13633,52 +13633,52 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>-16.66</v>
+        <v>-9.85</v>
       </c>
       <c r="G148" t="n">
-        <v>-9.18</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>-35.72</v>
+        <v>-61.34</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>-27.56</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>-24.43</v>
+        <v>-46.82</v>
       </c>
       <c r="L148" t="n">
-        <v>-8.26</v>
+        <v>16.87</v>
       </c>
       <c r="M148" t="n">
-        <v>4.01</v>
+        <v>50.53</v>
       </c>
       <c r="N148" t="n">
-        <v>-17.27</v>
+        <v>-11.29</v>
       </c>
       <c r="O148" t="n">
-        <v>-22.65</v>
+        <v>-23.11</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
       </c>
       <c r="Q148" t="n">
-        <v>218.41</v>
+        <v>1299.28</v>
       </c>
       <c r="R148" t="n">
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>-24.9</v>
+        <v>-54.34</v>
       </c>
       <c r="T148" t="n">
-        <v>-23.94</v>
+        <v>-46.45</v>
       </c>
       <c r="U148" t="n">
-        <v>-11.43</v>
+        <v>30.3</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -13690,10 +13690,10 @@
         <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="Z148" t="n">
-        <v>-11.01</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="149">
@@ -13713,13 +13713,13 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>-31.6</v>
+        <v>-21.94</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>-34.61</v>
+        <v>-27.61</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -13728,37 +13728,37 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>-19.68</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>-25.8</v>
+        <v>-10.79</v>
       </c>
       <c r="M149" t="n">
-        <v>-15.38</v>
+        <v>7.87</v>
       </c>
       <c r="N149" t="n">
-        <v>-18.92</v>
+        <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>-35.55</v>
+        <v>-29.73</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
       <c r="Q149" t="n">
-        <v>-14.26</v>
+        <v>0</v>
       </c>
       <c r="R149" t="n">
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>-19.66</v>
+        <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>-19.57</v>
+        <v>0</v>
       </c>
       <c r="U149" t="n">
-        <v>-19.25</v>
+        <v>0</v>
       </c>
       <c r="V149" t="n">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Z149" t="n">
-        <v>-19.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -13793,13 +13793,13 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>-2.14</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>-2.16</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -13811,16 +13811,16 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>-2.27</v>
+        <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>-2.03</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
@@ -13873,13 +13873,13 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>-5.11</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>-4.89</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -13891,16 +13891,16 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>-3.46</v>
+        <v>0</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>-4.47</v>
+        <v>0</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -13953,13 +13953,13 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>-16.71</v>
+        <v>-36.53</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>-16.94</v>
+        <v>-37.18</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -13968,37 +13968,37 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>-21.62</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>-11.11</v>
+        <v>-12.01</v>
       </c>
       <c r="M152" t="n">
-        <v>-6.67</v>
+        <v>7.07</v>
       </c>
       <c r="N152" t="n">
-        <v>-21.22</v>
+        <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>-13.99</v>
+        <v>-23.55</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="R152" t="n">
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>-21.57</v>
+        <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>-21.53</v>
+        <v>0</v>
       </c>
       <c r="U152" t="n">
-        <v>-20.91</v>
+        <v>0</v>
       </c>
       <c r="V152" t="n">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="Z152" t="n">
-        <v>-20.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -14113,13 +14113,13 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>-8.91</v>
+        <v>23.18</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>-25.92</v>
+        <v>-53.48</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -14128,37 +14128,37 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>-21.96</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>-15.81</v>
+        <v>-10.75</v>
       </c>
       <c r="M154" t="n">
-        <v>-2.88</v>
+        <v>46.18</v>
       </c>
       <c r="N154" t="n">
-        <v>-18.03</v>
+        <v>0</v>
       </c>
       <c r="O154" t="n">
-        <v>-18.86</v>
+        <v>-23.56</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
       </c>
       <c r="Q154" t="n">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="R154" t="n">
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>-22.64</v>
+        <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>-22.7</v>
+        <v>0</v>
       </c>
       <c r="U154" t="n">
-        <v>-17.94</v>
+        <v>0</v>
       </c>
       <c r="V154" t="n">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="Z154" t="n">
-        <v>-18.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -14193,52 +14193,52 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>-28</v>
+        <v>-17.8</v>
       </c>
       <c r="G155" t="n">
-        <v>-8.79</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>-46.87</v>
+        <v>-56.79</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-20.78</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>-44.94</v>
+        <v>-34.36</v>
       </c>
       <c r="L155" t="n">
-        <v>-10.77</v>
+        <v>16.71</v>
       </c>
       <c r="M155" t="n">
-        <v>4.72</v>
+        <v>46.5</v>
       </c>
       <c r="N155" t="n">
-        <v>-36.04</v>
+        <v>-15.66</v>
       </c>
       <c r="O155" t="n">
-        <v>-30.55</v>
+        <v>-23.94</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>276.43</v>
+        <v>625.6</v>
       </c>
       <c r="R155" t="n">
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>-46.38</v>
+        <v>-38.49</v>
       </c>
       <c r="T155" t="n">
-        <v>-44.7</v>
+        <v>-33.55</v>
       </c>
       <c r="U155" t="n">
-        <v>-27.23</v>
+        <v>2.1</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -14250,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Z155" t="n">
-        <v>-26.18</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="156">
@@ -14273,13 +14273,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -14291,16 +14291,16 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -14513,13 +14513,13 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>-27.7</v>
+        <v>-30.69</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -14528,25 +14528,25 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>-24.57</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>-25.15</v>
+        <v>-25.6</v>
       </c>
       <c r="M159" t="n">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>-24.45</v>
+        <v>0</v>
       </c>
       <c r="O159" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
       </c>
       <c r="Q159" t="n">
-        <v>12.29</v>
+        <v>0</v>
       </c>
       <c r="R159" t="n">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="T159" t="n">
-        <v>-24.49</v>
+        <v>0</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="X159" t="n">
         <v>0</v>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="Z159" t="n">
-        <v>-9.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -14673,13 +14673,13 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>-32.64</v>
+        <v>-45.57</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -14688,25 +14688,25 @@
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>-24.57</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>-28.63</v>
+        <v>-37.61</v>
       </c>
       <c r="M161" t="n">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>-24.45</v>
+        <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>12.29</v>
+        <v>0</v>
       </c>
       <c r="R161" t="n">
         <v>0</v>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>-24.49</v>
+        <v>0</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="W161" t="n">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="X161" t="n">
         <v>0</v>
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="Z161" t="n">
-        <v>-9.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -14833,52 +14833,52 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>-31.68</v>
+        <v>8.46</v>
       </c>
       <c r="G163" t="n">
-        <v>-10.47</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>-62.63</v>
+        <v>-34.49</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-9.55</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>-27.94</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>-37.71</v>
+        <v>-9.57</v>
       </c>
       <c r="M163" t="n">
-        <v>-29.3</v>
+        <v>-1.16</v>
       </c>
       <c r="N163" t="n">
-        <v>-29.18</v>
+        <v>10.13</v>
       </c>
       <c r="O163" t="n">
-        <v>-53.7</v>
+        <v>-25.56</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>52.84</v>
+        <v>0</v>
       </c>
       <c r="R163" t="n">
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>-28.27</v>
+        <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>-27.81</v>
+        <v>0</v>
       </c>
       <c r="U163" t="n">
-        <v>-22.17</v>
+        <v>0</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>0</v>
       </c>
       <c r="Y163" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="Z163" t="n">
-        <v>-22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>-28.59</v>
+        <v>32.82</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>-65.53</v>
+        <v>0</v>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>-26.41</v>
+        <v>22.69</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -15017,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>-55.65</v>
+        <v>0</v>
       </c>
       <c r="O165" t="n">
         <v>0</v>
@@ -15073,52 +15073,52 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>-22.22</v>
+        <v>8.7</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>-70.3</v>
+        <v>-39.38</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>-9.55</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>-38.07</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>-48.5</v>
+        <v>-17.58</v>
       </c>
       <c r="M166" t="n">
-        <v>-34</v>
+        <v>-3.08</v>
       </c>
       <c r="N166" t="n">
-        <v>-31.04</v>
+        <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>-61.85</v>
+        <v>-30.93</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>76.6</v>
+        <v>0</v>
       </c>
       <c r="R166" t="n">
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>-38.37</v>
+        <v>0</v>
       </c>
       <c r="T166" t="n">
-        <v>-37.76</v>
+        <v>0</v>
       </c>
       <c r="U166" t="n">
-        <v>-30.06</v>
+        <v>0</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -15130,10 +15130,10 @@
         <v>0</v>
       </c>
       <c r="Y166" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="Z166" t="n">
-        <v>-29.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -15153,13 +15153,13 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>-47.93</v>
+        <v>-8.2</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>-85.44</v>
+        <v>-43.36</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -15171,16 +15171,16 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>-64.63</v>
+        <v>-22.54</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>-58.89</v>
+        <v>-19.65</v>
       </c>
       <c r="O167" t="n">
-        <v>-81.21</v>
+        <v>-39.13</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>-29.82</v>
+        <v>12.03</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>-45.9</v>
+        <v>0</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -15313,52 +15313,52 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>-10.38</v>
+        <v>23.86</v>
       </c>
       <c r="G169" t="n">
-        <v>-11.03</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>-54.88</v>
+        <v>-63.16</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>-37.06</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>-34.13</v>
+        <v>-46.82</v>
       </c>
       <c r="L169" t="n">
-        <v>-19.8</v>
+        <v>1.11</v>
       </c>
       <c r="M169" t="n">
-        <v>2.97</v>
+        <v>42.39</v>
       </c>
       <c r="N169" t="n">
-        <v>-38.66</v>
+        <v>-0.76</v>
       </c>
       <c r="O169" t="n">
-        <v>-37.35</v>
+        <v>-30.42</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
       </c>
       <c r="Q169" t="n">
-        <v>199.22</v>
+        <v>1299.28</v>
       </c>
       <c r="R169" t="n">
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>-36.03</v>
+        <v>-54.34</v>
       </c>
       <c r="T169" t="n">
-        <v>-34.52</v>
+        <v>-46.45</v>
       </c>
       <c r="U169" t="n">
-        <v>-20.28</v>
+        <v>30.3</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -15370,10 +15370,10 @@
         <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>27.36</v>
+        <v>0</v>
       </c>
       <c r="Z169" t="n">
-        <v>-20.91</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="170">
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>-36.03</v>
+        <v>7.93</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>-51.7</v>
+        <v>0</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -15473,13 +15473,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>-19.08</v>
+        <v>10.77</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>-63.49</v>
+        <v>-45.22</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -15488,37 +15488,37 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>-24.78</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>-25.99</v>
+        <v>0.94</v>
       </c>
       <c r="M171" t="n">
-        <v>-4.58</v>
+        <v>26.99</v>
       </c>
       <c r="N171" t="n">
-        <v>-20.55</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>-45.24</v>
+        <v>-22.97</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
       </c>
       <c r="Q171" t="n">
-        <v>48.12</v>
+        <v>0</v>
       </c>
       <c r="R171" t="n">
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>-25.84</v>
+        <v>0</v>
       </c>
       <c r="T171" t="n">
-        <v>-25.67</v>
+        <v>0</v>
       </c>
       <c r="U171" t="n">
-        <v>-19.81</v>
+        <v>0</v>
       </c>
       <c r="V171" t="n">
         <v>0</v>
@@ -15533,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="Z171" t="n">
-        <v>-21.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -15553,52 +15553,52 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>-4.82</v>
+        <v>33.8</v>
       </c>
       <c r="G172" t="n">
-        <v>-10.47</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>-99.22</v>
+        <v>-65.51</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.55</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>-62.44</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>-93.78</v>
+        <v>-60.08</v>
       </c>
       <c r="M172" t="n">
-        <v>-45.75</v>
+        <v>-12.04</v>
       </c>
       <c r="N172" t="n">
-        <v>-30.7</v>
+        <v>18.62</v>
       </c>
       <c r="O172" t="n">
-        <v>-81.44</v>
+        <v>-47.73</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
       </c>
       <c r="Q172" t="n">
-        <v>119.28</v>
+        <v>0</v>
       </c>
       <c r="R172" t="n">
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>-62.95</v>
+        <v>0</v>
       </c>
       <c r="T172" t="n">
-        <v>-62.01</v>
+        <v>0</v>
       </c>
       <c r="U172" t="n">
-        <v>-49.64</v>
+        <v>0</v>
       </c>
       <c r="V172" t="n">
         <v>0</v>
@@ -15610,10 +15610,10 @@
         <v>0</v>
       </c>
       <c r="Y172" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="Z172" t="n">
-        <v>-49.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -15633,13 +15633,13 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>-37.17</v>
+        <v>-27.42</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>-46.75</v>
+        <v>-77.79</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -15651,16 +15651,16 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>-28.64</v>
+        <v>15.65</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>-61.3</v>
+        <v>0</v>
       </c>
       <c r="O173" t="n">
-        <v>-33.7</v>
+        <v>-8.55</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -15713,13 +15713,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>-19.91</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>-22.17</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>-18.46</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="O174" t="n">
-        <v>-19.82</v>
+        <v>0</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -15793,13 +15793,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>-19.67</v>
+        <v>-1.69</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>-19.23</v>
+        <v>-0.81</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -15808,37 +15808,37 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.45</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>-11.68</v>
+        <v>18.04</v>
       </c>
       <c r="M175" t="n">
-        <v>-9.26</v>
+        <v>1.63</v>
       </c>
       <c r="N175" t="n">
-        <v>-17.2</v>
+        <v>-2.65</v>
       </c>
       <c r="O175" t="n">
-        <v>-18.42</v>
+        <v>-0.24</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
       </c>
       <c r="Q175" t="n">
-        <v>-2.57</v>
+        <v>0</v>
       </c>
       <c r="R175" t="n">
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>-6.48</v>
+        <v>0</v>
       </c>
       <c r="T175" t="n">
-        <v>-6.45</v>
+        <v>0</v>
       </c>
       <c r="U175" t="n">
-        <v>-7.05</v>
+        <v>0</v>
       </c>
       <c r="V175" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="Z175" t="n">
-        <v>-7.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -15873,13 +15873,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>-37.55</v>
+        <v>-27.45</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>-36.58</v>
+        <v>-24.82</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -15888,37 +15888,37 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>-16.87</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>-30.12</v>
+        <v>-12.49</v>
       </c>
       <c r="M176" t="n">
-        <v>-22.58</v>
+        <v>3.45</v>
       </c>
       <c r="N176" t="n">
-        <v>-19.27</v>
+        <v>0</v>
       </c>
       <c r="O176" t="n">
-        <v>-33.1</v>
+        <v>-18.96</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
       </c>
       <c r="Q176" t="n">
-        <v>-12.05</v>
+        <v>0</v>
       </c>
       <c r="R176" t="n">
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>-16.74</v>
+        <v>0</v>
       </c>
       <c r="T176" t="n">
-        <v>-16.76</v>
+        <v>0</v>
       </c>
       <c r="U176" t="n">
-        <v>-16.68</v>
+        <v>0</v>
       </c>
       <c r="V176" t="n">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="Z176" t="n">
-        <v>-16.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -15953,13 +15953,13 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>-18.07</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>-21.05</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -15971,16 +15971,16 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>-15.51</v>
+        <v>0</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>-7.72</v>
+        <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>-17.71</v>
+        <v>0</v>
       </c>
       <c r="P177" t="n">
         <v>0</v>
@@ -16033,13 +16033,13 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>-3.13</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>-3.58</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -16051,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>-2.58</v>
+        <v>0</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="O178" t="n">
-        <v>-2.98</v>
+        <v>0</v>
       </c>
       <c r="P178" t="n">
         <v>0</v>
@@ -16113,13 +16113,13 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>-37.29</v>
+        <v>2.42</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>-50.19</v>
+        <v>-24.09</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -16128,37 +16128,37 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>-31.96</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>-20.62</v>
+        <v>37.48</v>
       </c>
       <c r="M179" t="n">
-        <v>-26.09</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>-61.3</v>
+        <v>-2.65</v>
       </c>
       <c r="O179" t="n">
-        <v>-31.9</v>
+        <v>13.88</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
       </c>
       <c r="Q179" t="n">
-        <v>-13.43</v>
+        <v>0</v>
       </c>
       <c r="R179" t="n">
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>-32.46</v>
+        <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>-32.73</v>
+        <v>0</v>
       </c>
       <c r="U179" t="n">
-        <v>-31.33</v>
+        <v>0</v>
       </c>
       <c r="V179" t="n">
         <v>0</v>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="Z179" t="n">
-        <v>-32.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -16193,13 +16193,13 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>-12.86</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>-15.05</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>-10.45</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="O180" t="n">
-        <v>-12.14</v>
+        <v>0</v>
       </c>
       <c r="P180" t="n">
         <v>0</v>
@@ -16273,13 +16273,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.17</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>-7.44</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="O181" t="n">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -16353,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>-11.32</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -16513,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>-2.73</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>-2.76</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
@@ -16593,13 +16593,13 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>-113.69</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>-304.91</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>-301.62</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="O185" t="n">
-        <v>-299.01</v>
+        <v>0</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>-12.51</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>-12.62</v>
+        <v>0</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
@@ -16833,13 +16833,13 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>-140.35</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>-180.29</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -16851,16 +16851,16 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>-178.44</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>-5.98</v>
+        <v>0</v>
       </c>
       <c r="O188" t="n">
-        <v>-177.03</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="Z188" t="n">
-        <v>-5.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>-2.73</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>-2.76</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -17233,13 +17233,13 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>-3.31</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>-3.11</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -17251,16 +17251,16 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>-2.96</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P193" t="n">
         <v>0</v>
@@ -17313,13 +17313,13 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>-2.78</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -17331,16 +17331,16 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>-2.27</v>
+        <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
         <v>0</v>
       </c>
       <c r="O194" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
       <c r="P194" t="n">
         <v>0</v>
@@ -17553,13 +17553,13 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>-25.23</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>-25.29</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -17571,16 +17571,16 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>-25.11</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>-24.22</v>
+        <v>0</v>
       </c>
       <c r="N197" t="n">
         <v>0</v>
       </c>
       <c r="O197" t="n">
-        <v>-23.83</v>
+        <v>0</v>
       </c>
       <c r="P197" t="n">
         <v>0</v>
@@ -17633,13 +17633,13 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.85</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>-3.74</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -17651,16 +17651,16 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>-3.41</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="N198" t="n">
         <v>0</v>
       </c>
       <c r="O198" t="n">
-        <v>-3.42</v>
+        <v>0</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -17793,13 +17793,13 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.43</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>-6.86</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -17808,37 +17808,37 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>-10.71</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>-10.54</v>
+        <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>-6.53</v>
+        <v>0</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
       </c>
       <c r="Q200" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="R200" t="n">
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>-10.85</v>
+        <v>0</v>
       </c>
       <c r="U200" t="n">
-        <v>-10.11</v>
+        <v>0</v>
       </c>
       <c r="V200" t="n">
         <v>0</v>
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
       <c r="Z200" t="n">
-        <v>-10.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -17873,13 +17873,13 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>-25.23</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>-25.29</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -17891,16 +17891,16 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>-25.11</v>
+        <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>-24.22</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
       </c>
       <c r="O201" t="n">
-        <v>-23.83</v>
+        <v>0</v>
       </c>
       <c r="P201" t="n">
         <v>0</v>
@@ -17953,13 +17953,13 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>-17.11</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>-14.81</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -17968,37 +17968,37 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>-10.71</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>-9.49</v>
+        <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>-10.54</v>
+        <v>0</v>
       </c>
       <c r="O202" t="n">
-        <v>-14.08</v>
+        <v>0</v>
       </c>
       <c r="P202" t="n">
         <v>0</v>
       </c>
       <c r="Q202" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="R202" t="n">
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="T202" t="n">
-        <v>-10.85</v>
+        <v>0</v>
       </c>
       <c r="U202" t="n">
-        <v>-10.11</v>
+        <v>0</v>
       </c>
       <c r="V202" t="n">
         <v>0</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="Z202" t="n">
-        <v>-10.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -18113,13 +18113,13 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>-10.24</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -18128,19 +18128,19 @@
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>-11.38</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>-4.13</v>
+        <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>10.98</v>
+        <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>-10.24</v>
+        <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>-6.47</v>
+        <v>0</v>
       </c>
       <c r="P204" t="n">
         <v>0</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="U204" t="n">
-        <v>-10.21</v>
+        <v>0</v>
       </c>
       <c r="V204" t="n">
         <v>0</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Z204" t="n">
-        <v>-10.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -18193,13 +18193,13 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>-17.92</v>
+        <v>-23.82</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>-20.49</v>
+        <v>-31.41</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -18208,19 +18208,19 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>-32.58</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>-15.08</v>
+        <v>-15.56</v>
       </c>
       <c r="M205" t="n">
-        <v>33.75</v>
+        <v>57.48</v>
       </c>
       <c r="N205" t="n">
-        <v>-27.37</v>
+        <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>-16.6</v>
+        <v>-19.92</v>
       </c>
       <c r="P205" t="n">
         <v>0</v>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
       <c r="U205" t="n">
-        <v>-26.75</v>
+        <v>0</v>
       </c>
       <c r="V205" t="n">
         <v>0</v>
@@ -18250,10 +18250,10 @@
         <v>0</v>
       </c>
       <c r="Y205" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="Z205" t="n">
-        <v>-30.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -18273,13 +18273,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>-8.53</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>-8.78</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -18288,19 +18288,19 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>-2.68</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>-8.39</v>
+        <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>-6.06</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="O206" t="n">
-        <v>-8.25</v>
+        <v>0</v>
       </c>
       <c r="P206" t="n">
         <v>0</v>
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="U206" t="n">
-        <v>-2.05</v>
+        <v>0</v>
       </c>
       <c r="V206" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="Z206" t="n">
-        <v>-2.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -18353,13 +18353,13 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>-8.56</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>-8.58</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -18371,16 +18371,16 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>-8.11</v>
+        <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>-6.15</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
         <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>-8.21</v>
+        <v>0</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
@@ -18433,13 +18433,13 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>-29.57</v>
+        <v>-23.82</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>-33.7</v>
+        <v>-31.41</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -18448,19 +18448,19 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>-17.63</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>-25.22</v>
+        <v>-15.56</v>
       </c>
       <c r="M208" t="n">
-        <v>14.83</v>
+        <v>57.48</v>
       </c>
       <c r="N208" t="n">
-        <v>-14.81</v>
+        <v>0</v>
       </c>
       <c r="O208" t="n">
-        <v>-27.36</v>
+        <v>-19.92</v>
       </c>
       <c r="P208" t="n">
         <v>0</v>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="U208" t="n">
-        <v>-14.4</v>
+        <v>0</v>
       </c>
       <c r="V208" t="n">
         <v>0</v>
@@ -18490,10 +18490,10 @@
         <v>0</v>
       </c>
       <c r="Y208" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="Z208" t="n">
-        <v>-16.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -18513,13 +18513,13 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>-47.55</v>
+        <v>-23.82</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>-55.14</v>
+        <v>-31.41</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -18528,19 +18528,19 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>-32.58</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>-39.3</v>
+        <v>-15.56</v>
       </c>
       <c r="M209" t="n">
-        <v>33.75</v>
+        <v>57.48</v>
       </c>
       <c r="N209" t="n">
-        <v>-27.37</v>
+        <v>0</v>
       </c>
       <c r="O209" t="n">
-        <v>-43.66</v>
+        <v>-19.92</v>
       </c>
       <c r="P209" t="n">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="U209" t="n">
-        <v>-26.75</v>
+        <v>0</v>
       </c>
       <c r="V209" t="n">
         <v>0</v>
@@ -18570,10 +18570,10 @@
         <v>0</v>
       </c>
       <c r="Y209" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="Z209" t="n">
-        <v>-30.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -18593,13 +18593,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>-89.74</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>-88.52</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -18611,16 +18611,16 @@
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>-89.62</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>-83.72</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
         <v>0</v>
       </c>
       <c r="O210" t="n">
-        <v>-88.06</v>
+        <v>0</v>
       </c>
       <c r="P210" t="n">
         <v>0</v>
@@ -18673,13 +18673,13 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>-89.74</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>-88.52</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -18691,16 +18691,16 @@
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>-89.62</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>-83.72</v>
+        <v>0</v>
       </c>
       <c r="N211" t="n">
         <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>-88.06</v>
+        <v>0</v>
       </c>
       <c r="P211" t="n">
         <v>0</v>
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Z211" t="n">
-        <v>-22.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -18753,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>-54.57</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -18768,25 +18768,25 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>-76.85</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>-55.07</v>
+        <v>0</v>
       </c>
       <c r="M212" t="n">
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>-76.82</v>
+        <v>0</v>
       </c>
       <c r="O212" t="n">
         <v>0</v>
       </c>
       <c r="P212" t="n">
-        <v>-76.8</v>
+        <v>0</v>
       </c>
       <c r="Q212" t="n">
-        <v>-71.22</v>
+        <v>0</v>
       </c>
       <c r="R212" t="n">
         <v>0</v>
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="T212" t="n">
-        <v>-76.89</v>
+        <v>0</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>-74.6</v>
+        <v>0</v>
       </c>
       <c r="X212" t="n">
         <v>0</v>
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="Z212" t="n">
-        <v>-26.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -18833,13 +18833,13 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>-23.62</v>
+        <v>12.36</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -18851,22 +18851,22 @@
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>-2.45</v>
+        <v>0</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>-18.68</v>
+        <v>0</v>
       </c>
       <c r="O213" t="n">
-        <v>-3.77</v>
+        <v>0</v>
       </c>
       <c r="P213" t="n">
         <v>0</v>
       </c>
       <c r="Q213" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="R213" t="n">
         <v>0</v>
@@ -18875,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>-1.62</v>
+        <v>0</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
@@ -18913,64 +18913,64 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>69.14</v>
+        <v>109.62</v>
       </c>
       <c r="G214" t="n">
-        <v>-23.33</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>-32.27</v>
+        <v>-9.75</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>-55.47</v>
+        <v>-19.92</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>-25.54</v>
+        <v>-8.19</v>
       </c>
       <c r="M214" t="n">
         <v>0</v>
       </c>
       <c r="N214" t="n">
-        <v>-33.47</v>
+        <v>-20.94</v>
       </c>
       <c r="O214" t="n">
-        <v>-18.9</v>
+        <v>3.62</v>
       </c>
       <c r="P214" t="n">
-        <v>-67.85</v>
+        <v>-61.46</v>
       </c>
       <c r="Q214" t="n">
-        <v>255.96</v>
+        <v>318.75</v>
       </c>
       <c r="R214" t="n">
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>-65.66</v>
+        <v>-49.58</v>
       </c>
       <c r="T214" t="n">
-        <v>-61.99</v>
+        <v>-44.58</v>
       </c>
       <c r="U214" t="n">
-        <v>-3.38</v>
+        <v>34.89</v>
       </c>
       <c r="V214" t="n">
-        <v>-18.78</v>
+        <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>-41.21</v>
+        <v>-16.98</v>
       </c>
       <c r="X214" t="n">
         <v>0</v>
       </c>
       <c r="Y214" t="n">
-        <v>-14.18</v>
+        <v>0</v>
       </c>
       <c r="Z214" t="n">
         <v>0</v>
@@ -19073,7 +19073,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>-48.18</v>
+        <v>6.21</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>-30.96</v>
+        <v>0</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
@@ -19153,13 +19153,13 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>-23.21</v>
+        <v>-8.21</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>-38.01</v>
+        <v>-23</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -19171,22 +19171,22 @@
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>-25.87</v>
+        <v>-10.86</v>
       </c>
       <c r="M217" t="n">
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>-29.69</v>
+        <v>-28.75</v>
       </c>
       <c r="O217" t="n">
-        <v>-38.92</v>
+        <v>-23.91</v>
       </c>
       <c r="P217" t="n">
         <v>0</v>
       </c>
       <c r="Q217" t="n">
-        <v>46.54</v>
+        <v>0</v>
       </c>
       <c r="R217" t="n">
         <v>0</v>
@@ -19195,7 +19195,7 @@
         <v>0</v>
       </c>
       <c r="T217" t="n">
-        <v>-14.92</v>
+        <v>0</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>-6.7</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>-4.69</v>
+        <v>0</v>
       </c>
       <c r="O218" t="n">
         <v>0</v>
@@ -19313,13 +19313,13 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>-17.95</v>
+        <v>-14.19</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>-20.84</v>
+        <v>-23</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -19331,22 +19331,22 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>-14.16</v>
+        <v>-10.86</v>
       </c>
       <c r="M219" t="n">
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>-9.51</v>
+        <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>-21.34</v>
+        <v>-23.91</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
       </c>
       <c r="Q219" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="R219" t="n">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>-8.27</v>
+        <v>0</v>
       </c>
       <c r="U219" t="n">
         <v>0</v>
@@ -19393,13 +19393,13 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>-12.46</v>
+        <v>3.7</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>-27.71</v>
+        <v>-24.72</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -19408,37 +19408,37 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>-7.69</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>-14.09</v>
+        <v>6.44</v>
       </c>
       <c r="M220" t="n">
-        <v>-14.35</v>
+        <v>2.69</v>
       </c>
       <c r="N220" t="n">
-        <v>-6.13</v>
+        <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>-23.34</v>
+        <v>-14.81</v>
       </c>
       <c r="P220" t="n">
         <v>0</v>
       </c>
       <c r="Q220" t="n">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="R220" t="n">
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>-8.08</v>
+        <v>0</v>
       </c>
       <c r="T220" t="n">
-        <v>-7.92</v>
+        <v>0</v>
       </c>
       <c r="U220" t="n">
-        <v>-6.38</v>
+        <v>0</v>
       </c>
       <c r="V220" t="n">
         <v>0</v>
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="Z220" t="n">
-        <v>-7.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>-3.32</v>
+        <v>27.42</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>-14.35</v>
+        <v>0</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>-3.16</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>-3.16</v>
+        <v>0</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>-18.48</v>
+        <v>19.64</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>-28.84</v>
+        <v>0</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -19713,13 +19713,13 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>-9.94</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>-4.21</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -19731,16 +19731,16 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>-24.69</v>
+        <v>-10.62</v>
       </c>
       <c r="M224" t="n">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
       </c>
       <c r="O224" t="n">
-        <v>-4.15</v>
+        <v>0</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
@@ -19793,13 +19793,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>-27.7</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>-27.92</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -19811,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>-27.41</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="O225" t="n">
-        <v>-27.64</v>
+        <v>0</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
@@ -20193,13 +20193,13 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>-3.71</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -20211,16 +20211,16 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>-3.66</v>
+        <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>-5.19</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
       </c>
       <c r="O230" t="n">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -20273,13 +20273,13 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>-40.7</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>-40.5</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -20291,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>-40.26</v>
+        <v>0</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="O231" t="n">
-        <v>-40.48</v>
+        <v>0</v>
       </c>
       <c r="P231" t="n">
         <v>0</v>
@@ -20353,13 +20353,13 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>-21.21</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>-21.63</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -20371,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>-20.98</v>
+        <v>0</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -20380,7 +20380,7 @@
         <v>0</v>
       </c>
       <c r="O232" t="n">
-        <v>-21.21</v>
+        <v>0</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -20433,13 +20433,13 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>-10.27</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>-11.11</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>-9.83</v>
+        <v>0</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="O233" t="n">
-        <v>-10.29</v>
+        <v>0</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
       <c r="Z237" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>-3.62</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -20851,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -20913,13 +20913,13 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>-5.06</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>-4.85</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="O239" t="n">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="P239" t="n">
         <v>0</v>
@@ -20973,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="Z239" t="n">
-        <v>-17.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="Z241" t="n">
-        <v>-33.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="Z243" t="n">
-        <v>-17.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="Z245" t="n">
-        <v>-24.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>-22.28</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -21497,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>-5.98</v>
+        <v>0</v>
       </c>
       <c r="O246" t="n">
         <v>0</v>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="Z246" t="n">
-        <v>-5.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -21553,13 +21553,13 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>-5.06</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>-4.85</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -21571,7 +21571,7 @@
         <v>0</v>
       </c>
       <c r="L247" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="M247" t="n">
         <v>0</v>
@@ -21580,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="O247" t="n">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="P247" t="n">
         <v>0</v>
@@ -21693,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="Z248" t="n">
-        <v>-30.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -21713,13 +21713,13 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>-216.24</v>
+        <v>-46.06</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>-216.21</v>
+        <v>-46.16</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>-215.79</v>
+        <v>-45.52</v>
       </c>
       <c r="M249" t="n">
-        <v>-210.24</v>
+        <v>-39.8</v>
       </c>
       <c r="N249" t="n">
         <v>0</v>
       </c>
       <c r="O249" t="n">
-        <v>-215.69</v>
+        <v>-45.62</v>
       </c>
       <c r="P249" t="n">
         <v>0</v>
@@ -21873,13 +21873,13 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>-165.73</v>
+        <v>-46.06</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>-179.53</v>
+        <v>-46.16</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -21891,16 +21891,16 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>-165.61</v>
+        <v>-45.52</v>
       </c>
       <c r="M251" t="n">
-        <v>-174.98</v>
+        <v>-39.8</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
       </c>
       <c r="O251" t="n">
-        <v>-179.16</v>
+        <v>-45.62</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -22033,13 +22033,13 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>-99.44</v>
+        <v>-24.03</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>-99.4</v>
+        <v>-23.97</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -22051,16 +22051,16 @@
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>-99.27</v>
+        <v>-23.53</v>
       </c>
       <c r="M253" t="n">
-        <v>-96.94</v>
+        <v>-17.69</v>
       </c>
       <c r="N253" t="n">
         <v>0</v>
       </c>
       <c r="O253" t="n">
-        <v>-99.07</v>
+        <v>-23.25</v>
       </c>
       <c r="P253" t="n">
         <v>0</v>
@@ -22113,13 +22113,13 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>-66.75</v>
+        <v>-44.88</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>-67.22</v>
+        <v>-46.72</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -22131,16 +22131,16 @@
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>-62.93</v>
+        <v>-37.61</v>
       </c>
       <c r="M254" t="n">
-        <v>-57.79</v>
+        <v>-33.88</v>
       </c>
       <c r="N254" t="n">
         <v>0</v>
       </c>
       <c r="O254" t="n">
-        <v>-61.56</v>
+        <v>-34.06</v>
       </c>
       <c r="P254" t="n">
         <v>0</v>
@@ -22193,13 +22193,13 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>-51.29</v>
+        <v>-44.88</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>-51.96</v>
+        <v>-46.72</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -22211,16 +22211,16 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>-48.05</v>
+        <v>-37.61</v>
       </c>
       <c r="M255" t="n">
-        <v>-45.52</v>
+        <v>-33.88</v>
       </c>
       <c r="N255" t="n">
         <v>0</v>
       </c>
       <c r="O255" t="n">
-        <v>-46.66</v>
+        <v>-34.06</v>
       </c>
       <c r="P255" t="n">
         <v>0</v>
@@ -22273,13 +22273,13 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>-30.9</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>-30.58</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -22291,16 +22291,16 @@
         <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>-30.59</v>
+        <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>-26.81</v>
+        <v>0</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
       </c>
       <c r="O256" t="n">
-        <v>-30.03</v>
+        <v>0</v>
       </c>
       <c r="P256" t="n">
         <v>0</v>
@@ -22353,13 +22353,13 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>-9.47</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>-9.27</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -22371,16 +22371,16 @@
         <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>-9.04</v>
+        <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="N257" t="n">
         <v>0</v>
       </c>
       <c r="O257" t="n">
-        <v>-8.63</v>
+        <v>0</v>
       </c>
       <c r="P257" t="n">
         <v>0</v>
